--- a/result/风控联合建模标签（2026）.xlsx
+++ b/result/风控联合建模标签（2026）.xlsx
@@ -8432,7 +8432,7 @@
   <dimension ref="A1:D1197"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.22727272727273" defaultRowHeight="14" outlineLevelCol="3"/>
